--- a/ds1.xlsx
+++ b/ds1.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">std</t>
   </si>
   <si>
-    <t xml:space="preserve">real</t>
+    <t xml:space="preserve">pred</t>
   </si>
 </sst>
 </file>
@@ -157,16 +157,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G340"/>
+  <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="19.99"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="6" min="5" style="1" width="8.53"/>
@@ -217,6 +217,10 @@
         <f aca="false">(D2*F2)+E2</f>
         <v>10.9965939364474</v>
       </c>
+      <c r="I2" s="1" t="n">
+        <f aca="false">RSQ(B:B,G:G)</f>
+        <v>0.901678478480038</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">

--- a/ds1.xlsx
+++ b/ds1.xlsx
@@ -160,7 +160,7 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -217,10 +217,7 @@
         <f aca="false">(D2*F2)+E2</f>
         <v>10.9965939364474</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <f aca="false">RSQ(B:B,G:G)</f>
-        <v>0.901678478480038</v>
-      </c>
+      <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -244,6 +241,10 @@
       <c r="G3" s="1" t="n">
         <f aca="false">(D3*F3)+E3</f>
         <v>10.7317094126612</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <f aca="false">RSQ(B:B,G:G)</f>
+        <v>0.901678478480038</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
